--- a/漏洞top参考链接.xlsx
+++ b/漏洞top参考链接.xlsx
@@ -462,119 +462,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CWE-362</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CWE-400 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWE-611</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWE-94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页生成过程中输入的无效化（“交叉脚本”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入验证不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出范围读取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL命令中使用的特殊元素的不正确（“SQL注入”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统命令中使用的特殊元素的不当（“操作系统命令注入”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费后使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制目录路径名的不当限制（“路径遍历”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限制上传危险类型文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL指针取消引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可信数据的反序列化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数溢出或换行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份验证不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用硬编码凭据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少授权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令中使用的特殊元素的不当（“命令注入”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少关键功能的身份验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存缓冲区范围内的操作限制不当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认权限不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSRF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用共享资源并发执行，但同步不正确（“竞争条件”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受控制的资源消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML外部实体引用的不当限制（XEE）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码生成控制不当（“代码注入”）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CWE-918</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CWE-362</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CWE-400 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CWE-611</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CWE-94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网页生成过程中输入的无效化（“交叉脚本”）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入验证不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超出范围读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL命令中使用的特殊元素的不正确（“SQL注入”）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作系统命令中使用的特殊元素的不当（“操作系统命令注入”）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费后使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制目录路径名的不当限制（“路径遍历”）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSRF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限制上传危险类型文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL指针取消引用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可信数据的反序列化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数溢出或换行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份验证不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用硬编码凭据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少授权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令中使用的特殊元素的不当（“命令注入”）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少关键功能的身份验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存缓冲区范围内的操作限制不当</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认权限不正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSRF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用共享资源并发执行，但同步不正确（“竞争条件”）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不受控制的资源消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML外部实体引用的不当限制（XEE）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码生成控制不当（“代码注入”）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1451,7 @@
         <v>90</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1459,7 +1459,7 @@
         <v>91</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>93</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>95</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>96</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>97</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>98</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>99</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>100</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>101</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>102</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -1555,7 +1555,7 @@
         <v>103</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
         <v>104</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
         <v>105</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>106</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>107</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -1595,47 +1595,47 @@
         <v>108</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
